--- a/excel01.xlsx
+++ b/excel01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">testing </t>
   </si>
   <si>
     <t>dari dalam file local</t>
+  </si>
+  <si>
+    <t>coba diedit sama vanie</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,6 +379,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
